--- a/data/valutazione abstract approvati da ministero.xlsx
+++ b/data/valutazione abstract approvati da ministero.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\netapp-doc\Doc-Direzione-Segreteria\2_DS\RICERCA CORRENTE 2021\9 - valtazione finale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\IZSLEReasearch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E845FADD-9234-4B41-9893-7E85D4797BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esterni" sheetId="4" r:id="rId1"/>
@@ -21,11 +22,11 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">esterni!$A$1:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">esterni!$A$1:$J$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'loi 2021'!$B$6:$AP$26</definedName>
     <definedName name="Areatematica">'[1]Foglio2 '!$A$2:$A$4+'[1]Foglio2 '!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="128">
   <si>
     <t>Responsabile scientifico</t>
   </si>
@@ -506,25 +507,16 @@
   <si>
     <t>Dalzini</t>
   </si>
-  <si>
-    <t xml:space="preserve">BERTINI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROLLI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CICOZZI </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,12 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1234,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1540,7 +1526,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1578,8 +1563,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="1"/>
-    <cellStyle name="Normale 3" xfId="2"/>
+    <cellStyle name="Normale 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1903,22 +1888,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1937,20 +1922,20 @@
       <c r="F1" t="s">
         <v>108</v>
       </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.4" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1969,23 +1954,20 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>103</v>
+      <c r="G2">
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2004,23 +1986,20 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>89</v>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2039,23 +2018,20 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>90</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2074,23 +2050,20 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>91</v>
+      <c r="G5">
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2109,11 +2082,20 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2132,11 +2114,20 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2155,23 +2146,20 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>95</v>
+      <c r="G8">
+        <v>3</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2190,23 +2178,20 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>91</v>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2225,23 +2210,20 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>96</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2260,23 +2242,20 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>128</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2295,23 +2274,20 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
-        <v>90</v>
+      <c r="G12">
+        <v>5</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2330,8 +2306,8 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>98</v>
+      <c r="G13">
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -2340,13 +2316,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2365,11 +2338,20 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2388,11 +2370,20 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2411,23 +2402,20 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
-        <v>91</v>
+      <c r="G16">
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2446,11 +2434,20 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2469,11 +2466,20 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2492,23 +2498,20 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
-        <v>95</v>
+      <c r="G19">
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2527,11 +2530,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>95</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2539,11 +2542,8 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>7</v>
       </c>
@@ -2562,8 +2562,8 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
-        <v>96</v>
+      <c r="G21">
+        <v>4</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2572,13 +2572,10 @@
         <v>4</v>
       </c>
       <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>7</v>
       </c>
@@ -2597,11 +2594,20 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>8</v>
       </c>
@@ -2620,11 +2626,20 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>8</v>
       </c>
@@ -2643,23 +2658,20 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" t="s">
-        <v>96</v>
+      <c r="G24">
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2678,8 +2690,8 @@
       <c r="F25">
         <v>3</v>
       </c>
-      <c r="G25" t="s">
-        <v>91</v>
+      <c r="G25">
+        <v>5</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -2690,11 +2702,8 @@
       <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2713,23 +2722,20 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>100</v>
+      <c r="G26">
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>9</v>
       </c>
@@ -2748,23 +2754,20 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" t="s">
-        <v>98</v>
+      <c r="G27">
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>3</v>
       </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2783,23 +2786,20 @@
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" t="s">
-        <v>101</v>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2818,8 +2818,8 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
-        <v>98</v>
+      <c r="G29">
+        <v>5</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -2828,13 +2828,10 @@
         <v>5</v>
       </c>
       <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>10</v>
       </c>
@@ -2853,23 +2850,20 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
-        <v>100</v>
+      <c r="G30">
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2888,43 +2882,52 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" t="s">
-        <v>101</v>
+      <c r="G31">
+        <v>5</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>4</v>
       </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107">
-        <v>10</v>
-      </c>
-      <c r="B32" s="107">
-        <v>17</v>
-      </c>
-      <c r="C32" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="107">
-        <v>90000</v>
-      </c>
-      <c r="F32" s="107">
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>100000</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>11</v>
       </c>
@@ -2941,25 +2944,22 @@
         <v>100000</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>11</v>
       </c>
@@ -2976,56 +2976,86 @@
         <v>100000</v>
       </c>
       <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>70000</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>70000</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35">
-        <v>100000</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107">
-        <v>11</v>
-      </c>
-      <c r="B36" s="107">
-        <v>18</v>
-      </c>
-      <c r="C36" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="107">
-        <v>100000</v>
-      </c>
-      <c r="F36" s="107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>12</v>
       </c>
@@ -3042,83 +3072,86 @@
         <v>70000</v>
       </c>
       <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>95</v>
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>4</v>
       </c>
       <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>70000</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>96</v>
-      </c>
       <c r="H38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <v>4</v>
       </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>70000</v>
       </c>
       <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>13</v>
       </c>
@@ -3135,83 +3168,86 @@
         <v>70000</v>
       </c>
       <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>45000</v>
+      </c>
+      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40">
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>45000</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="I40">
+      <c r="G42">
         <v>2</v>
       </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41">
-        <v>21</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>70000</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>13</v>
-      </c>
-      <c r="B42">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42">
-        <v>70000</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>14</v>
       </c>
@@ -3228,68 +3264,74 @@
         <v>45000</v>
       </c>
       <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>86500</v>
+      </c>
+      <c r="F44">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>14</v>
-      </c>
-      <c r="B44">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
         <v>23</v>
       </c>
-      <c r="E44">
-        <v>45000</v>
-      </c>
-      <c r="F44">
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45">
+        <v>86500</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>14</v>
-      </c>
-      <c r="B45">
-        <v>22</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45">
-        <v>45000</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>103</v>
+      <c r="G45">
+        <v>5</v>
       </c>
       <c r="H45">
         <v>5</v>
@@ -3300,11 +3342,8 @@
       <c r="J45">
         <v>5</v>
       </c>
-      <c r="K45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>15</v>
       </c>
@@ -3321,83 +3360,86 @@
         <v>86500</v>
       </c>
       <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>70000</v>
+      </c>
+      <c r="F47">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>15</v>
-      </c>
-      <c r="B47">
-        <v>23</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47">
-        <v>86500</v>
-      </c>
-      <c r="F47">
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="G47" t="s">
-        <v>103</v>
-      </c>
       <c r="H47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>5</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>86500</v>
+        <v>70000</v>
       </c>
       <c r="F48">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>16</v>
       </c>
@@ -3414,83 +3456,77 @@
         <v>70000</v>
       </c>
       <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>80000</v>
+      </c>
+      <c r="F50">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49">
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>80000</v>
+      </c>
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>16</v>
-      </c>
-      <c r="B50">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>70000</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>16</v>
-      </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51">
-        <v>70000</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>89</v>
+      <c r="G51">
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <v>4</v>
@@ -3498,11 +3534,8 @@
       <c r="J51">
         <v>5</v>
       </c>
-      <c r="K51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>17</v>
       </c>
@@ -3519,95 +3552,86 @@
         <v>80000</v>
       </c>
       <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>55000</v>
+      </c>
+      <c r="F53">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52">
-        <v>5</v>
-      </c>
-      <c r="J52">
-        <v>4</v>
-      </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>17</v>
-      </c>
-      <c r="B53">
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53">
-        <v>80000</v>
-      </c>
-      <c r="F53">
+      <c r="E54">
+        <v>55000</v>
+      </c>
+      <c r="F54">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-      <c r="J53">
-        <v>4</v>
-      </c>
-      <c r="K53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>17</v>
-      </c>
-      <c r="B54">
-        <v>25</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54">
-        <v>80000</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>128</v>
+      <c r="G54">
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>4</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>18</v>
       </c>
@@ -3624,83 +3648,86 @@
         <v>55000</v>
       </c>
       <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>50000</v>
+      </c>
+      <c r="F56">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55">
-        <v>5</v>
-      </c>
-      <c r="K55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>18</v>
-      </c>
-      <c r="B56">
-        <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56">
-        <v>55000</v>
-      </c>
-      <c r="F56">
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>50000</v>
+      </c>
+      <c r="F57">
         <v>2</v>
       </c>
-      <c r="G56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>18</v>
-      </c>
-      <c r="B57">
-        <v>27</v>
-      </c>
-      <c r="C57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57">
-        <v>55000</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>19</v>
       </c>
@@ -3717,83 +3744,86 @@
         <v>50000</v>
       </c>
       <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59">
+        <v>100000</v>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>104</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="I58">
-        <v>4</v>
-      </c>
-      <c r="J58">
-        <v>3</v>
-      </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>19</v>
-      </c>
-      <c r="B59">
-        <v>28</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59">
-        <v>50000</v>
-      </c>
-      <c r="F59">
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60">
+        <v>100000</v>
+      </c>
+      <c r="F60">
         <v>2</v>
       </c>
-      <c r="G59" t="s">
-        <v>103</v>
-      </c>
-      <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>5</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60">
-        <v>28</v>
-      </c>
-      <c r="C60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60">
-        <v>50000</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>20</v>
       </c>
@@ -3810,59 +3840,86 @@
         <v>100000</v>
       </c>
       <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62">
+        <v>95000</v>
+      </c>
+      <c r="F62">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>20</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62">
-        <v>100000</v>
-      </c>
-      <c r="F62">
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63">
+        <v>95000</v>
+      </c>
+      <c r="F63">
         <v>2</v>
       </c>
-      <c r="G62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>20</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63">
-        <v>100000</v>
-      </c>
-      <c r="F63">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>21</v>
       </c>
@@ -3879,80 +3936,74 @@
         <v>95000</v>
       </c>
       <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65">
+        <v>100000</v>
+      </c>
+      <c r="F65">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="J64">
-        <v>5</v>
-      </c>
-      <c r="K64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>21</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65">
-        <v>95000</v>
-      </c>
-      <c r="F65">
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66">
+        <v>100000</v>
+      </c>
+      <c r="F66">
         <v>2</v>
       </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65">
-        <v>4</v>
-      </c>
-      <c r="I65">
-        <v>3</v>
-      </c>
-      <c r="J65">
-        <v>4</v>
-      </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>21</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66">
-        <v>95000</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66" t="s">
-        <v>96</v>
+      <c r="G66">
+        <v>5</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -3961,13 +4012,10 @@
         <v>4</v>
       </c>
       <c r="J66">
-        <v>4</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>22</v>
       </c>
@@ -3984,71 +4032,86 @@
         <v>100000</v>
       </c>
       <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>85000</v>
+      </c>
+      <c r="F68">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H67">
-        <v>4</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>22</v>
-      </c>
-      <c r="B68">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68">
-        <v>100000</v>
-      </c>
-      <c r="F68">
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>85000</v>
+      </c>
+      <c r="F69">
         <v>2</v>
       </c>
-      <c r="G68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>22</v>
-      </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69">
-        <v>100000</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="G69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>23</v>
       </c>
@@ -4065,71 +4128,86 @@
         <v>85000</v>
       </c>
       <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71">
+        <v>88000</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70">
-        <v>4</v>
-      </c>
-      <c r="J70">
-        <v>5</v>
-      </c>
-      <c r="K70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>23</v>
-      </c>
-      <c r="B71">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71">
-        <v>85000</v>
-      </c>
-      <c r="F71">
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72">
+        <v>88000</v>
+      </c>
+      <c r="F72">
         <v>2</v>
       </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>23</v>
-      </c>
-      <c r="B72">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72">
-        <v>85000</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>24</v>
       </c>
@@ -4146,80 +4224,74 @@
         <v>88000</v>
       </c>
       <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74">
+        <v>90000</v>
+      </c>
+      <c r="F74">
         <v>1</v>
       </c>
-      <c r="G73" t="s">
-        <v>104</v>
-      </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-      <c r="J73">
-        <v>3</v>
-      </c>
-      <c r="K73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>24</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74">
-        <v>88000</v>
-      </c>
-      <c r="F74">
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75">
+        <v>90000</v>
+      </c>
+      <c r="F75">
         <v>2</v>
       </c>
-      <c r="G74" t="s">
-        <v>130</v>
-      </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-      <c r="I74">
-        <v>5</v>
-      </c>
-      <c r="J74">
-        <v>4</v>
-      </c>
-      <c r="K74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>24</v>
-      </c>
-      <c r="B75">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75">
-        <v>88000</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
+      <c r="G75">
+        <v>5</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -4228,13 +4300,10 @@
         <v>4</v>
       </c>
       <c r="J75">
-        <v>4</v>
-      </c>
-      <c r="K75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>25</v>
       </c>
@@ -4251,71 +4320,86 @@
         <v>90000</v>
       </c>
       <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77">
+        <v>57000</v>
+      </c>
+      <c r="F77">
         <v>1</v>
       </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>25</v>
-      </c>
-      <c r="B77">
-        <v>11</v>
-      </c>
-      <c r="C77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77">
-        <v>90000</v>
-      </c>
-      <c r="F77">
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
         <v>2</v>
       </c>
-      <c r="G77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77">
-        <v>5</v>
-      </c>
       <c r="I77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77">
         <v>4</v>
       </c>
-      <c r="K77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78">
-        <v>90000</v>
+        <v>57000</v>
       </c>
       <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>26</v>
       </c>
@@ -4332,83 +4416,86 @@
         <v>57000</v>
       </c>
       <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80">
+        <v>115000</v>
+      </c>
+      <c r="F80">
         <v>1</v>
       </c>
-      <c r="G79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>26</v>
-      </c>
-      <c r="B80">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80">
-        <v>57000</v>
-      </c>
-      <c r="F80">
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>2</v>
       </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
-      <c r="I80">
-        <v>3</v>
-      </c>
       <c r="J80">
-        <v>4</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81">
-        <v>57000</v>
+        <v>115000</v>
       </c>
       <c r="F81">
-        <v>3</v>
-      </c>
-      <c r="G81" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81">
-        <v>3</v>
-      </c>
-      <c r="K81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>27</v>
       </c>
@@ -4425,95 +4512,86 @@
         <v>115000</v>
       </c>
       <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83">
+        <v>85500</v>
+      </c>
+      <c r="F83">
         <v>1</v>
       </c>
-      <c r="G82" t="s">
-        <v>96</v>
-      </c>
-      <c r="H82">
-        <v>4</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84">
+        <v>85500</v>
+      </c>
+      <c r="F84">
         <v>2</v>
       </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>27</v>
-      </c>
-      <c r="B83">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83">
-        <v>115000</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83" t="s">
-        <v>95</v>
-      </c>
-      <c r="H83">
-        <v>4</v>
-      </c>
-      <c r="I83">
-        <v>3</v>
-      </c>
-      <c r="J83">
-        <v>4</v>
-      </c>
-      <c r="K83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>27</v>
-      </c>
-      <c r="B84">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84">
-        <v>115000</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84" t="s">
-        <v>91</v>
+      <c r="G84">
+        <v>4</v>
       </c>
       <c r="H84">
         <v>5</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>28</v>
       </c>
@@ -4530,95 +4608,86 @@
         <v>85500</v>
       </c>
       <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86">
+        <v>80000</v>
+      </c>
+      <c r="F86">
         <v>1</v>
       </c>
-      <c r="G85" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85">
-        <v>4</v>
-      </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-      <c r="J85">
-        <v>5</v>
-      </c>
-      <c r="K85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>28</v>
-      </c>
-      <c r="B86">
-        <v>26</v>
-      </c>
-      <c r="C86" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86">
-        <v>85500</v>
-      </c>
-      <c r="F86">
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87">
+        <v>80000</v>
+      </c>
+      <c r="F87">
         <v>2</v>
       </c>
-      <c r="G86" t="s">
-        <v>89</v>
-      </c>
-      <c r="H86">
-        <v>4</v>
-      </c>
-      <c r="I86">
-        <v>5</v>
-      </c>
-      <c r="J86">
-        <v>4</v>
-      </c>
-      <c r="K86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>28</v>
-      </c>
-      <c r="B87">
-        <v>26</v>
-      </c>
-      <c r="C87" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E87">
-        <v>85500</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
+      <c r="G87">
+        <v>5</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>5</v>
-      </c>
-      <c r="K87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>29</v>
       </c>
@@ -4635,91 +4704,18 @@
         <v>80000</v>
       </c>
       <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
       </c>
       <c r="H88">
         <v>4</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J88">
-        <v>4</v>
-      </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>29</v>
-      </c>
-      <c r="B89">
-        <v>29</v>
-      </c>
-      <c r="C89" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89">
-        <v>80000</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89" t="s">
-        <v>98</v>
-      </c>
-      <c r="H89">
-        <v>5</v>
-      </c>
-      <c r="I89">
-        <v>4</v>
-      </c>
-      <c r="J89">
-        <v>3</v>
-      </c>
-      <c r="K89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>29</v>
-      </c>
-      <c r="B90">
-        <v>29</v>
-      </c>
-      <c r="C90" t="s">
-        <v>126</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90">
-        <v>80000</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90" t="s">
-        <v>104</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90">
-        <v>4</v>
-      </c>
-      <c r="J90">
-        <v>4</v>
-      </c>
-      <c r="K90">
         <v>5</v>
       </c>
     </row>
@@ -4729,1072 +4725,1072 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="A1:K30"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+    <row r="2" spans="1:11">
+      <c r="A2" s="107">
         <v>1</v>
       </c>
-      <c r="B2" s="108">
+      <c r="B2" s="107">
         <v>1</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E2" s="107">
         <v>90000</v>
       </c>
-      <c r="F2" s="108">
-        <v>4</v>
-      </c>
-      <c r="G2" s="108">
-        <v>5</v>
-      </c>
-      <c r="H2" s="108">
-        <v>4</v>
-      </c>
-      <c r="I2" s="108">
+      <c r="F2" s="107">
+        <v>4</v>
+      </c>
+      <c r="G2" s="107">
+        <v>5</v>
+      </c>
+      <c r="H2" s="107">
+        <v>4</v>
+      </c>
+      <c r="I2" s="107">
         <v>3.5</v>
       </c>
-      <c r="J2" s="108">
-        <v>4</v>
-      </c>
-      <c r="K2" s="108">
+      <c r="J2" s="107">
+        <v>4</v>
+      </c>
+      <c r="K2" s="107">
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="108">
+    <row r="3" spans="1:11">
+      <c r="A3" s="107">
         <v>2</v>
       </c>
-      <c r="B3" s="108">
+      <c r="B3" s="107">
         <v>2</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="107">
         <v>80000</v>
       </c>
-      <c r="F3" s="108">
-        <v>4</v>
-      </c>
-      <c r="G3" s="108">
-        <v>5</v>
-      </c>
-      <c r="H3" s="108">
-        <v>4</v>
-      </c>
-      <c r="I3" s="108">
+      <c r="F3" s="107">
+        <v>4</v>
+      </c>
+      <c r="G3" s="107">
+        <v>5</v>
+      </c>
+      <c r="H3" s="107">
+        <v>4</v>
+      </c>
+      <c r="I3" s="107">
         <v>3.5</v>
       </c>
-      <c r="J3" s="108">
+      <c r="J3" s="107">
         <v>3.5</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="108">
-        <v>3</v>
-      </c>
-      <c r="B4" s="108">
-        <v>4</v>
-      </c>
-      <c r="C4" s="108" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="107">
+        <v>3</v>
+      </c>
+      <c r="B4" s="107">
+        <v>4</v>
+      </c>
+      <c r="C4" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="107">
         <v>80000</v>
       </c>
-      <c r="F4" s="108">
-        <v>4</v>
-      </c>
-      <c r="G4" s="108">
-        <v>5</v>
-      </c>
-      <c r="H4" s="108">
+      <c r="F4" s="107">
+        <v>4</v>
+      </c>
+      <c r="G4" s="107">
+        <v>5</v>
+      </c>
+      <c r="H4" s="107">
         <v>3.5</v>
       </c>
-      <c r="I4" s="108">
-        <v>3</v>
-      </c>
-      <c r="J4" s="108">
-        <v>3</v>
-      </c>
-      <c r="K4" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
-        <v>4</v>
-      </c>
-      <c r="B5" s="108">
+      <c r="I4" s="107">
+        <v>3</v>
+      </c>
+      <c r="J4" s="107">
+        <v>3</v>
+      </c>
+      <c r="K4" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="107">
+        <v>4</v>
+      </c>
+      <c r="B5" s="107">
         <v>8</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="107">
         <v>90000</v>
       </c>
-      <c r="F5" s="108">
-        <v>4</v>
-      </c>
-      <c r="G5" s="108">
-        <v>5</v>
-      </c>
-      <c r="H5" s="108">
-        <v>5</v>
-      </c>
-      <c r="I5" s="108">
+      <c r="F5" s="107">
+        <v>4</v>
+      </c>
+      <c r="G5" s="107">
+        <v>5</v>
+      </c>
+      <c r="H5" s="107">
+        <v>5</v>
+      </c>
+      <c r="I5" s="107">
         <v>4.5</v>
       </c>
-      <c r="J5" s="108">
-        <v>4</v>
-      </c>
-      <c r="K5" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
-        <v>5</v>
-      </c>
-      <c r="B6" s="108">
+      <c r="J5" s="107">
+        <v>4</v>
+      </c>
+      <c r="K5" s="107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="107">
+        <v>5</v>
+      </c>
+      <c r="B6" s="107">
         <v>10</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="107">
         <v>160000</v>
       </c>
-      <c r="F6" s="108">
-        <v>4</v>
-      </c>
-      <c r="G6" s="108">
+      <c r="F6" s="107">
+        <v>4</v>
+      </c>
+      <c r="G6" s="107">
         <v>4.5</v>
       </c>
-      <c r="H6" s="108">
-        <v>5</v>
-      </c>
-      <c r="I6" s="108">
-        <v>4</v>
-      </c>
-      <c r="J6" s="108">
-        <v>3</v>
-      </c>
-      <c r="K6" s="108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="H6" s="107">
+        <v>5</v>
+      </c>
+      <c r="I6" s="107">
+        <v>4</v>
+      </c>
+      <c r="J6" s="107">
+        <v>3</v>
+      </c>
+      <c r="K6" s="107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="107">
         <v>6</v>
       </c>
-      <c r="B7" s="108">
+      <c r="B7" s="107">
         <v>12</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="107">
         <v>120000</v>
       </c>
-      <c r="F7" s="108">
-        <v>4</v>
-      </c>
-      <c r="G7" s="108">
+      <c r="F7" s="107">
+        <v>4</v>
+      </c>
+      <c r="G7" s="107">
         <v>3.5</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="107">
         <v>3.5</v>
       </c>
-      <c r="I7" s="108">
-        <v>3</v>
-      </c>
-      <c r="J7" s="108">
-        <v>4</v>
-      </c>
-      <c r="K7" s="108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="I7" s="107">
+        <v>3</v>
+      </c>
+      <c r="J7" s="107">
+        <v>4</v>
+      </c>
+      <c r="K7" s="107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="107">
         <v>7</v>
       </c>
-      <c r="B8" s="108">
+      <c r="B8" s="107">
         <v>14</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="107">
         <v>120000</v>
       </c>
-      <c r="F8" s="108">
-        <v>4</v>
-      </c>
-      <c r="G8" s="108">
-        <v>5</v>
-      </c>
-      <c r="H8" s="108">
-        <v>4</v>
-      </c>
-      <c r="I8" s="108">
-        <v>4</v>
-      </c>
-      <c r="J8" s="108">
+      <c r="F8" s="107">
+        <v>4</v>
+      </c>
+      <c r="G8" s="107">
+        <v>5</v>
+      </c>
+      <c r="H8" s="107">
+        <v>4</v>
+      </c>
+      <c r="I8" s="107">
+        <v>4</v>
+      </c>
+      <c r="J8" s="107">
         <v>3.5</v>
       </c>
-      <c r="K8" s="108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="K8" s="107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="107">
         <v>8</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="107">
         <v>15</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="107">
         <v>85000</v>
       </c>
-      <c r="F9" s="108">
-        <v>4</v>
-      </c>
-      <c r="G9" s="108">
-        <v>5</v>
-      </c>
-      <c r="H9" s="108">
+      <c r="F9" s="107">
+        <v>4</v>
+      </c>
+      <c r="G9" s="107">
+        <v>5</v>
+      </c>
+      <c r="H9" s="107">
         <v>3.5</v>
       </c>
-      <c r="I9" s="108">
+      <c r="I9" s="107">
         <v>3.5</v>
       </c>
-      <c r="J9" s="108">
-        <v>4</v>
-      </c>
-      <c r="K9" s="108">
+      <c r="J9" s="107">
+        <v>4</v>
+      </c>
+      <c r="K9" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+    <row r="10" spans="1:11">
+      <c r="A10" s="107">
         <v>9</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="107">
         <v>16</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="107">
         <v>80000</v>
       </c>
-      <c r="F10" s="108">
-        <v>4</v>
-      </c>
-      <c r="G10" s="108">
-        <v>5</v>
-      </c>
-      <c r="H10" s="108">
-        <v>4</v>
-      </c>
-      <c r="I10" s="108">
-        <v>4</v>
-      </c>
-      <c r="J10" s="108">
+      <c r="F10" s="107">
+        <v>4</v>
+      </c>
+      <c r="G10" s="107">
+        <v>5</v>
+      </c>
+      <c r="H10" s="107">
+        <v>4</v>
+      </c>
+      <c r="I10" s="107">
+        <v>4</v>
+      </c>
+      <c r="J10" s="107">
         <v>3.5</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+    <row r="11" spans="1:11">
+      <c r="A11" s="107">
         <v>10</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="107">
         <v>17</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="107">
         <v>90000</v>
       </c>
-      <c r="F11" s="108">
-        <v>4</v>
-      </c>
-      <c r="G11" s="108">
-        <v>5</v>
-      </c>
-      <c r="H11" s="108">
-        <v>5</v>
-      </c>
-      <c r="I11" s="108">
-        <v>4</v>
-      </c>
-      <c r="J11" s="108">
-        <v>4</v>
-      </c>
-      <c r="K11" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="F11" s="107">
+        <v>4</v>
+      </c>
+      <c r="G11" s="107">
+        <v>5</v>
+      </c>
+      <c r="H11" s="107">
+        <v>5</v>
+      </c>
+      <c r="I11" s="107">
+        <v>4</v>
+      </c>
+      <c r="J11" s="107">
+        <v>4</v>
+      </c>
+      <c r="K11" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="107">
         <v>11</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="107">
         <v>18</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="107">
         <v>100000</v>
       </c>
-      <c r="F12" s="108">
-        <v>4</v>
-      </c>
-      <c r="G12" s="108">
+      <c r="F12" s="107">
+        <v>4</v>
+      </c>
+      <c r="G12" s="107">
         <v>4.5</v>
       </c>
-      <c r="H12" s="108">
-        <v>5</v>
-      </c>
-      <c r="I12" s="108">
+      <c r="H12" s="107">
+        <v>5</v>
+      </c>
+      <c r="I12" s="107">
         <v>3.5</v>
       </c>
-      <c r="J12" s="108">
-        <v>4</v>
-      </c>
-      <c r="K12" s="108">
+      <c r="J12" s="107">
+        <v>4</v>
+      </c>
+      <c r="K12" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+    <row r="13" spans="1:11">
+      <c r="A13" s="107">
         <v>12</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="107">
         <v>20</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="107">
         <v>70000</v>
       </c>
-      <c r="F13" s="108">
-        <v>4</v>
-      </c>
-      <c r="G13" s="108">
-        <v>4</v>
-      </c>
-      <c r="H13" s="108">
-        <v>5</v>
-      </c>
-      <c r="I13" s="108">
+      <c r="F13" s="107">
+        <v>4</v>
+      </c>
+      <c r="G13" s="107">
+        <v>4</v>
+      </c>
+      <c r="H13" s="107">
+        <v>5</v>
+      </c>
+      <c r="I13" s="107">
         <v>3.5</v>
       </c>
-      <c r="J13" s="108">
+      <c r="J13" s="107">
         <v>3.5</v>
       </c>
-      <c r="K13" s="108">
+      <c r="K13" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="14" spans="1:11">
+      <c r="A14" s="107">
         <v>13</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="107">
         <v>21</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="107">
         <v>70000</v>
       </c>
-      <c r="F14" s="108">
-        <v>4</v>
-      </c>
-      <c r="G14" s="108">
+      <c r="F14" s="107">
+        <v>4</v>
+      </c>
+      <c r="G14" s="107">
         <v>3.5</v>
       </c>
-      <c r="H14" s="108">
-        <v>5</v>
-      </c>
-      <c r="I14" s="108">
-        <v>4</v>
-      </c>
-      <c r="J14" s="108">
-        <v>4</v>
-      </c>
-      <c r="K14" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="H14" s="107">
+        <v>5</v>
+      </c>
+      <c r="I14" s="107">
+        <v>4</v>
+      </c>
+      <c r="J14" s="107">
+        <v>4</v>
+      </c>
+      <c r="K14" s="107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="107">
         <v>14</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="107">
         <v>22</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="107">
         <v>45000</v>
       </c>
-      <c r="F15" s="108">
-        <v>4</v>
-      </c>
-      <c r="G15" s="108">
-        <v>5</v>
-      </c>
-      <c r="H15" s="108">
+      <c r="F15" s="107">
+        <v>4</v>
+      </c>
+      <c r="G15" s="107">
+        <v>5</v>
+      </c>
+      <c r="H15" s="107">
         <v>4.5</v>
       </c>
-      <c r="I15" s="108">
-        <v>4</v>
-      </c>
-      <c r="J15" s="108">
-        <v>3</v>
-      </c>
-      <c r="K15" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="I15" s="107">
+        <v>4</v>
+      </c>
+      <c r="J15" s="107">
+        <v>3</v>
+      </c>
+      <c r="K15" s="107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="107">
         <v>15</v>
       </c>
-      <c r="B16" s="108">
+      <c r="B16" s="107">
         <v>23</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="107">
         <v>86500</v>
       </c>
-      <c r="F16" s="108">
-        <v>4</v>
-      </c>
-      <c r="G16" s="108">
-        <v>5</v>
-      </c>
-      <c r="H16" s="108">
-        <v>4</v>
-      </c>
-      <c r="I16" s="108">
-        <v>4</v>
-      </c>
-      <c r="J16" s="108">
+      <c r="F16" s="107">
+        <v>4</v>
+      </c>
+      <c r="G16" s="107">
+        <v>5</v>
+      </c>
+      <c r="H16" s="107">
+        <v>4</v>
+      </c>
+      <c r="I16" s="107">
+        <v>4</v>
+      </c>
+      <c r="J16" s="107">
         <v>4.5</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+    <row r="17" spans="1:11">
+      <c r="A17" s="107">
         <v>16</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="107">
         <v>24</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="107">
         <v>70000</v>
       </c>
-      <c r="F17" s="108">
-        <v>4</v>
-      </c>
-      <c r="G17" s="108">
-        <v>5</v>
-      </c>
-      <c r="H17" s="108">
-        <v>3</v>
-      </c>
-      <c r="I17" s="108">
-        <v>3</v>
-      </c>
-      <c r="J17" s="108">
+      <c r="F17" s="107">
+        <v>4</v>
+      </c>
+      <c r="G17" s="107">
+        <v>5</v>
+      </c>
+      <c r="H17" s="107">
+        <v>3</v>
+      </c>
+      <c r="I17" s="107">
+        <v>3</v>
+      </c>
+      <c r="J17" s="107">
         <v>3.5</v>
       </c>
-      <c r="K17" s="108">
+      <c r="K17" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+    <row r="18" spans="1:11">
+      <c r="A18" s="107">
         <v>17</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="107">
         <v>25</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="107">
         <v>80000</v>
       </c>
-      <c r="F18" s="108">
-        <v>4</v>
-      </c>
-      <c r="G18" s="108">
-        <v>5</v>
-      </c>
-      <c r="H18" s="108">
-        <v>4</v>
-      </c>
-      <c r="I18" s="108">
+      <c r="F18" s="107">
+        <v>4</v>
+      </c>
+      <c r="G18" s="107">
+        <v>5</v>
+      </c>
+      <c r="H18" s="107">
+        <v>4</v>
+      </c>
+      <c r="I18" s="107">
         <v>3.5</v>
       </c>
-      <c r="J18" s="108">
-        <v>3</v>
-      </c>
-      <c r="K18" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="J18" s="107">
+        <v>3</v>
+      </c>
+      <c r="K18" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="107">
         <v>18</v>
       </c>
-      <c r="B19" s="108">
+      <c r="B19" s="107">
         <v>27</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="107">
         <v>55000</v>
       </c>
-      <c r="F19" s="108">
-        <v>4</v>
-      </c>
-      <c r="G19" s="108">
-        <v>5</v>
-      </c>
-      <c r="H19" s="108">
+      <c r="F19" s="107">
+        <v>4</v>
+      </c>
+      <c r="G19" s="107">
+        <v>5</v>
+      </c>
+      <c r="H19" s="107">
         <v>4.5</v>
       </c>
-      <c r="I19" s="108">
+      <c r="I19" s="107">
         <v>3.5</v>
       </c>
-      <c r="J19" s="108">
-        <v>3</v>
-      </c>
-      <c r="K19" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="J19" s="107">
+        <v>3</v>
+      </c>
+      <c r="K19" s="107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="107">
         <v>19</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="107">
         <v>28</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="107">
         <v>50000</v>
       </c>
-      <c r="F20" s="108">
-        <v>4</v>
-      </c>
-      <c r="G20" s="108">
-        <v>5</v>
-      </c>
-      <c r="H20" s="108">
+      <c r="F20" s="107">
+        <v>4</v>
+      </c>
+      <c r="G20" s="107">
+        <v>5</v>
+      </c>
+      <c r="H20" s="107">
         <v>4.5</v>
       </c>
-      <c r="I20" s="108">
-        <v>4</v>
-      </c>
-      <c r="J20" s="108">
+      <c r="I20" s="107">
+        <v>4</v>
+      </c>
+      <c r="J20" s="107">
         <v>3.5</v>
       </c>
-      <c r="K20" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="K20" s="107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="107">
         <v>20</v>
       </c>
-      <c r="B21" s="108">
-        <v>3</v>
-      </c>
-      <c r="C21" s="108" t="s">
+      <c r="B21" s="107">
+        <v>3</v>
+      </c>
+      <c r="C21" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="107">
         <v>100000</v>
       </c>
-      <c r="F21" s="108">
-        <v>4</v>
-      </c>
-      <c r="G21" s="108">
-        <v>5</v>
-      </c>
-      <c r="H21" s="108">
-        <v>4</v>
-      </c>
-      <c r="I21" s="108">
-        <v>4</v>
-      </c>
-      <c r="J21" s="108">
-        <v>4</v>
-      </c>
-      <c r="K21" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="F21" s="107">
+        <v>4</v>
+      </c>
+      <c r="G21" s="107">
+        <v>5</v>
+      </c>
+      <c r="H21" s="107">
+        <v>4</v>
+      </c>
+      <c r="I21" s="107">
+        <v>4</v>
+      </c>
+      <c r="J21" s="107">
+        <v>4</v>
+      </c>
+      <c r="K21" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="107">
         <v>21</v>
       </c>
-      <c r="B22" s="108">
-        <v>5</v>
-      </c>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="107">
+        <v>5</v>
+      </c>
+      <c r="C22" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="107">
         <v>95000</v>
       </c>
-      <c r="F22" s="108">
-        <v>4</v>
-      </c>
-      <c r="G22" s="108">
-        <v>4</v>
-      </c>
-      <c r="H22" s="108">
+      <c r="F22" s="107">
+        <v>4</v>
+      </c>
+      <c r="G22" s="107">
+        <v>4</v>
+      </c>
+      <c r="H22" s="107">
         <v>3.5</v>
       </c>
-      <c r="I22" s="108">
-        <v>3</v>
-      </c>
-      <c r="J22" s="108">
-        <v>4</v>
-      </c>
-      <c r="K22" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="I22" s="107">
+        <v>3</v>
+      </c>
+      <c r="J22" s="107">
+        <v>4</v>
+      </c>
+      <c r="K22" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="107">
         <v>22</v>
       </c>
-      <c r="B23" s="108">
+      <c r="B23" s="107">
         <v>6</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="107">
         <v>100000</v>
       </c>
-      <c r="F23" s="108">
-        <v>4</v>
-      </c>
-      <c r="G23" s="108">
+      <c r="F23" s="107">
+        <v>4</v>
+      </c>
+      <c r="G23" s="107">
         <v>4.5</v>
       </c>
-      <c r="H23" s="108">
-        <v>3</v>
-      </c>
-      <c r="I23" s="108">
+      <c r="H23" s="107">
+        <v>3</v>
+      </c>
+      <c r="I23" s="107">
         <v>3.5</v>
       </c>
-      <c r="J23" s="108">
+      <c r="J23" s="107">
         <v>4.5</v>
       </c>
-      <c r="K23" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="K23" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="107">
         <v>23</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="107">
         <v>7</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="107">
         <v>85000</v>
       </c>
-      <c r="F24" s="108">
-        <v>4</v>
-      </c>
-      <c r="G24" s="108">
-        <v>4</v>
-      </c>
-      <c r="H24" s="108">
+      <c r="F24" s="107">
+        <v>4</v>
+      </c>
+      <c r="G24" s="107">
+        <v>4</v>
+      </c>
+      <c r="H24" s="107">
         <v>4.5</v>
       </c>
-      <c r="I24" s="108">
-        <v>4</v>
-      </c>
-      <c r="J24" s="108">
+      <c r="I24" s="107">
+        <v>4</v>
+      </c>
+      <c r="J24" s="107">
         <v>4.5</v>
       </c>
-      <c r="K24" s="108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+      <c r="K24" s="107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="107">
         <v>24</v>
       </c>
-      <c r="B25" s="108">
+      <c r="B25" s="107">
         <v>9</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="107">
         <v>88000</v>
       </c>
-      <c r="F25" s="108">
-        <v>4</v>
-      </c>
-      <c r="G25" s="108">
+      <c r="F25" s="107">
+        <v>4</v>
+      </c>
+      <c r="G25" s="107">
         <v>4.5</v>
       </c>
-      <c r="H25" s="108">
+      <c r="H25" s="107">
         <v>4.5</v>
       </c>
-      <c r="I25" s="108">
-        <v>4</v>
-      </c>
-      <c r="J25" s="108">
+      <c r="I25" s="107">
+        <v>4</v>
+      </c>
+      <c r="J25" s="107">
         <v>3.5</v>
       </c>
-      <c r="K25" s="108">
+      <c r="K25" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
+    <row r="26" spans="1:11">
+      <c r="A26" s="107">
         <v>25</v>
       </c>
-      <c r="B26" s="108">
+      <c r="B26" s="107">
         <v>11</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="108" t="s">
+      <c r="D26" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="107">
         <v>90000</v>
       </c>
-      <c r="F26" s="108">
-        <v>4</v>
-      </c>
-      <c r="G26" s="108">
-        <v>5</v>
-      </c>
-      <c r="H26" s="108">
+      <c r="F26" s="107">
+        <v>4</v>
+      </c>
+      <c r="G26" s="107">
+        <v>5</v>
+      </c>
+      <c r="H26" s="107">
         <v>4.5</v>
       </c>
-      <c r="I26" s="108">
-        <v>4</v>
-      </c>
-      <c r="J26" s="108">
-        <v>4</v>
-      </c>
-      <c r="K26" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+      <c r="I26" s="107">
+        <v>4</v>
+      </c>
+      <c r="J26" s="107">
+        <v>4</v>
+      </c>
+      <c r="K26" s="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="107">
         <v>26</v>
       </c>
-      <c r="B27" s="108">
+      <c r="B27" s="107">
         <v>13</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="107">
         <v>57000</v>
       </c>
-      <c r="F27" s="108">
-        <v>4</v>
-      </c>
-      <c r="G27" s="108">
-        <v>4</v>
-      </c>
-      <c r="H27" s="108">
+      <c r="F27" s="107">
+        <v>4</v>
+      </c>
+      <c r="G27" s="107">
+        <v>4</v>
+      </c>
+      <c r="H27" s="107">
         <v>3.5</v>
       </c>
-      <c r="I27" s="108">
-        <v>3</v>
-      </c>
-      <c r="J27" s="108">
+      <c r="I27" s="107">
+        <v>3</v>
+      </c>
+      <c r="J27" s="107">
         <v>3.5</v>
       </c>
-      <c r="K27" s="108">
+      <c r="K27" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="108">
+    <row r="28" spans="1:11">
+      <c r="A28" s="107">
         <v>27</v>
       </c>
-      <c r="B28" s="108">
+      <c r="B28" s="107">
         <v>19</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="108">
+      <c r="E28" s="107">
         <v>115000</v>
       </c>
-      <c r="F28" s="108">
-        <v>4</v>
-      </c>
-      <c r="G28" s="108">
-        <v>5</v>
-      </c>
-      <c r="H28" s="108">
+      <c r="F28" s="107">
+        <v>4</v>
+      </c>
+      <c r="G28" s="107">
+        <v>5</v>
+      </c>
+      <c r="H28" s="107">
         <v>4.5</v>
       </c>
-      <c r="I28" s="108">
-        <v>4</v>
-      </c>
-      <c r="J28" s="108">
+      <c r="I28" s="107">
+        <v>4</v>
+      </c>
+      <c r="J28" s="107">
         <v>3.5</v>
       </c>
-      <c r="K28" s="108">
+      <c r="K28" s="107">
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="108">
+    <row r="29" spans="1:11">
+      <c r="A29" s="107">
         <v>28</v>
       </c>
-      <c r="B29" s="108">
+      <c r="B29" s="107">
         <v>26</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="107">
         <v>85500</v>
       </c>
-      <c r="F29" s="108">
-        <v>4</v>
-      </c>
-      <c r="G29" s="108">
-        <v>5</v>
-      </c>
-      <c r="H29" s="108">
-        <v>4</v>
-      </c>
-      <c r="I29" s="108">
+      <c r="F29" s="107">
+        <v>4</v>
+      </c>
+      <c r="G29" s="107">
+        <v>5</v>
+      </c>
+      <c r="H29" s="107">
+        <v>4</v>
+      </c>
+      <c r="I29" s="107">
         <v>3.5</v>
       </c>
-      <c r="J29" s="108">
-        <v>4</v>
-      </c>
-      <c r="K29" s="108">
+      <c r="J29" s="107">
+        <v>4</v>
+      </c>
+      <c r="K29" s="107">
         <v>4.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
+    <row r="30" spans="1:11">
+      <c r="A30" s="107">
         <v>29</v>
       </c>
-      <c r="B30" s="108">
+      <c r="B30" s="107">
         <v>29</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="108">
+      <c r="E30" s="107">
         <v>80000</v>
       </c>
-      <c r="F30" s="108">
-        <v>4</v>
-      </c>
-      <c r="G30" s="108">
-        <v>4</v>
-      </c>
-      <c r="H30" s="108">
-        <v>3</v>
-      </c>
-      <c r="I30" s="108">
-        <v>3</v>
-      </c>
-      <c r="J30" s="108">
-        <v>3</v>
-      </c>
-      <c r="K30" s="108">
+      <c r="F30" s="107">
+        <v>4</v>
+      </c>
+      <c r="G30" s="107">
+        <v>4</v>
+      </c>
+      <c r="H30" s="107">
+        <v>3</v>
+      </c>
+      <c r="I30" s="107">
+        <v>3</v>
+      </c>
+      <c r="J30" s="107">
+        <v>3</v>
+      </c>
+      <c r="K30" s="107">
         <v>4</v>
       </c>
     </row>
@@ -5805,94 +5801,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="32"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="33"/>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="32"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="32"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="32"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="32"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="32"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="32"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="32"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="32"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="32"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="32"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
         <v>73</v>
       </c>
@@ -5904,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5916,32 +5912,32 @@
       <selection pane="topRight" activeCell="AC7" sqref="AC7:AG25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
-    <col min="7" max="27" width="16.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="25" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
+    <col min="7" max="27" width="16.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" style="25" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="22" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.42578125" style="25" customWidth="1"/>
-    <col min="37" max="38" width="19.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.85546875" style="1" customWidth="1"/>
-    <col min="40" max="41" width="8.85546875" style="1"/>
-    <col min="42" max="42" width="41.140625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="8.85546875" style="1"/>
+    <col min="35" max="35" width="16.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.44140625" style="25" customWidth="1"/>
+    <col min="37" max="38" width="19.88671875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.88671875" style="1" customWidth="1"/>
+    <col min="40" max="41" width="8.88671875" style="1"/>
+    <col min="42" max="42" width="41.109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
@@ -5949,8 +5945,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:42" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="16.2" thickBot="1"/>
+    <row r="3" spans="1:42" ht="58.5" customHeight="1" thickBot="1">
       <c r="B3" s="59" t="s">
         <v>81</v>
       </c>
@@ -5989,7 +5985,7 @@
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
     </row>
-    <row r="4" spans="1:42" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="29.25" customHeight="1" thickBot="1">
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="71"/>
@@ -6030,11 +6026,11 @@
       <c r="AG4" s="64"/>
       <c r="AH4" s="64"/>
       <c r="AI4" s="65"/>
-      <c r="AJ4" s="111" t="s">
+      <c r="AJ4" s="110" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="73"/>
       <c r="C5" s="74"/>
       <c r="D5" s="75"/>
@@ -6070,30 +6066,30 @@
       <c r="AB5" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="AC5" s="114" t="s">
+      <c r="AC5" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="AD5" s="116" t="s">
+      <c r="AD5" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="116" t="s">
+      <c r="AE5" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" s="116" t="s">
+      <c r="AF5" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="AG5" s="116" t="s">
+      <c r="AG5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="118" t="s">
+      <c r="AH5" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="AI5" s="109" t="s">
+      <c r="AI5" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="AJ5" s="112"/>
-    </row>
-    <row r="6" spans="1:42" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="111"/>
+    </row>
+    <row r="6" spans="1:42" ht="78" thickBot="1">
       <c r="A6" s="71" t="s">
         <v>75</v>
       </c>
@@ -6176,14 +6172,14 @@
         <v>38</v>
       </c>
       <c r="AB6" s="68"/>
-      <c r="AC6" s="115"/>
-      <c r="AD6" s="117"/>
-      <c r="AE6" s="117"/>
-      <c r="AF6" s="117"/>
-      <c r="AG6" s="117"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="110"/>
-      <c r="AJ6" s="113"/>
+      <c r="AC6" s="114"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="112"/>
       <c r="AK6" s="27" t="s">
         <v>8</v>
       </c>
@@ -6194,7 +6190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="46.8">
       <c r="A7" s="100">
         <v>1</v>
       </c>
@@ -6291,7 +6287,7 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="80"/>
     </row>
-    <row r="8" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="31.2">
       <c r="A8" s="100">
         <v>2</v>
       </c>
@@ -6395,7 +6391,7 @@
       <c r="AK8" s="28"/>
       <c r="AL8" s="17"/>
     </row>
-    <row r="9" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="31.2">
       <c r="A9" s="100">
         <v>3</v>
       </c>
@@ -6499,7 +6495,7 @@
       <c r="AK9" s="28"/>
       <c r="AL9" s="17"/>
     </row>
-    <row r="10" spans="1:42" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="46.8">
       <c r="A10" s="100">
         <v>4</v>
       </c>
@@ -6595,7 +6591,7 @@
       <c r="AK10" s="28"/>
       <c r="AL10" s="17"/>
     </row>
-    <row r="11" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="31.2">
       <c r="A11" s="100">
         <v>5</v>
       </c>
@@ -6699,7 +6695,7 @@
       <c r="AK11" s="28"/>
       <c r="AL11" s="17"/>
     </row>
-    <row r="12" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="31.2">
       <c r="A12" s="100">
         <v>6</v>
       </c>
@@ -6796,7 +6792,7 @@
       <c r="AL12" s="18"/>
       <c r="AP12" s="7"/>
     </row>
-    <row r="13" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="31.2">
       <c r="A13" s="100">
         <v>7</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="31.2">
       <c r="A14" s="100">
         <v>8</v>
       </c>
@@ -7000,7 +6996,7 @@
       <c r="AK14" s="29"/>
       <c r="AL14" s="16"/>
     </row>
-    <row r="15" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="31.2">
       <c r="A15" s="100">
         <v>9</v>
       </c>
@@ -7096,7 +7092,7 @@
       <c r="AK15" s="28"/>
       <c r="AL15" s="16"/>
     </row>
-    <row r="16" spans="1:42" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="46.8">
       <c r="A16" s="100">
         <v>10</v>
       </c>
@@ -7192,7 +7188,7 @@
       <c r="AK16" s="28"/>
       <c r="AL16" s="16"/>
     </row>
-    <row r="17" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="19.8">
       <c r="A17" s="100">
         <v>11</v>
       </c>
@@ -7288,7 +7284,7 @@
       <c r="AK17" s="28"/>
       <c r="AL17" s="16"/>
     </row>
-    <row r="18" spans="1:41" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="62.4">
       <c r="A18" s="100">
         <v>12</v>
       </c>
@@ -7385,7 +7381,7 @@
       <c r="AL18" s="19"/>
       <c r="AM18" s="4"/>
     </row>
-    <row r="19" spans="1:41" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="19.8">
       <c r="A19" s="100">
         <v>13</v>
       </c>
@@ -7481,7 +7477,7 @@
       <c r="AK19" s="28"/>
       <c r="AL19" s="16"/>
     </row>
-    <row r="20" spans="1:41" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="46.8">
       <c r="A20" s="100">
         <v>14</v>
       </c>
@@ -7577,7 +7573,7 @@
       <c r="AK20" s="28"/>
       <c r="AL20" s="17"/>
     </row>
-    <row r="21" spans="1:41" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="31.2">
       <c r="A21" s="100">
         <v>15</v>
       </c>
@@ -7673,7 +7669,7 @@
       <c r="AK21" s="28"/>
       <c r="AL21" s="16"/>
     </row>
-    <row r="22" spans="1:41" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="31.2">
       <c r="A22" s="101">
         <v>16</v>
       </c>
@@ -7769,7 +7765,7 @@
       <c r="AK22" s="28"/>
       <c r="AL22" s="16"/>
     </row>
-    <row r="23" spans="1:41" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="46.8">
       <c r="A23" s="100">
         <v>17</v>
       </c>
@@ -7865,7 +7861,7 @@
       <c r="AK23" s="28"/>
       <c r="AL23" s="16"/>
     </row>
-    <row r="24" spans="1:41" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="31.2">
       <c r="A24" s="100">
         <v>18</v>
       </c>
@@ -7963,7 +7959,7 @@
       <c r="AN24" s="6"/>
       <c r="AO24" s="4"/>
     </row>
-    <row r="25" spans="1:41" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="31.2">
       <c r="A25" s="101">
         <v>19</v>
       </c>
@@ -8061,7 +8057,7 @@
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
@@ -8073,13 +8069,13 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="E28" s="12"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -8111,7 +8107,7 @@
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -8143,7 +8139,7 @@
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="E30" s="14"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -8175,7 +8171,7 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -8198,7 +8194,7 @@
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
@@ -8221,7 +8217,7 @@
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
     </row>
-    <row r="33" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="46.8">
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
@@ -8230,12 +8226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="31.2">
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -8244,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="36">
       <c r="B37" s="26" t="s">
         <v>3</v>
       </c>
@@ -8261,7 +8257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
